--- a/ApolloQA/Data/RatingManual/SC/VA00044.ClassCodeFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/SC/VA00044.ClassCodeFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00044.ClassCodeFactors" sheetId="1" r:id="Ra763a1105dee44aa"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00044.ClassCodeFactors" sheetId="1" r:id="R7eb85e277f4e4f59"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -23,7 +23,7 @@
         <x:v>504</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.1473</x:v>
+        <x:v>1.4341</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -79,7 +79,7 @@
         <x:v>517</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.5830</x:v>
+        <x:v>1.9788</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -87,7 +87,7 @@
         <x:v>518</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.2780</x:v>
+        <x:v>1.5975</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -143,7 +143,7 @@
         <x:v>539</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.1641</x:v>
+        <x:v>1.4551</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -151,7 +151,7 @@
         <x:v>540</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.1446</x:v>
+        <x:v>1.4308</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -159,7 +159,7 @@
         <x:v>542</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.5319</x:v>
+        <x:v>1.9149</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -167,7 +167,7 @@
         <x:v>544</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.4686</x:v>
+        <x:v>1.8358</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -311,7 +311,7 @@
         <x:v>564</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>0.9335</x:v>
+        <x:v>1.1669</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -327,7 +327,7 @@
         <x:v>566</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.1427</x:v>
+        <x:v>1.4284</x:v>
       </x:c>
     </x:row>
     <x:row>
@@ -335,7 +335,7 @@
         <x:v>568</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.4380</x:v>
+        <x:v>1.7975</x:v>
       </x:c>
     </x:row>
     <x:row>
